--- a/URS/DbLayouts/L6-共同作業/CdIndustry.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdIndustry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FAB70-E537-49C6-BE62-87E46EC11FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55360B8B-4584-4F53-9065-F1DCA459E167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -253,6 +253,29 @@
     <t>位數不足6碼者，前補零</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryRating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企金放款產業評等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>報表使用
+LM048企業放款風險承擔限額控管表
+值為NULL時不進表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-26 智偉新增
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +387,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +398,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -439,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +558,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -876,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -890,14 +925,15 @@
     <col min="4" max="4" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="12"/>
+    <col min="8" max="8" width="40.44140625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
@@ -908,9 +944,9 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:8">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
@@ -921,11 +957,11 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="19" t="s">
         <v>41</v>
       </c>
@@ -934,22 +970,22 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="27"/>
       <c r="D4" s="26"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
@@ -958,29 +994,29 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="27"/>
       <c r="D6" s="26"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="27"/>
       <c r="D7" s="26"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1">
+    <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -1024,7 +1060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="29">
         <v>2</v>
       </c>
@@ -1045,7 +1081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="29">
         <v>3</v>
       </c>
@@ -1066,115 +1102,130 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="29">
+    <row r="12" spans="1:8" ht="64.8">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="B12" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="29">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="29">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="29">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="29">
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="29">
+        <v>6</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="29">
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="29">
+        <v>9</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="29">
+        <v>6</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="29"/>
@@ -1204,12 +1255,13 @@
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="4"/>
@@ -1228,30 +1280,38 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
       <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
